--- a/Rawdata/tor.riptransekter helags 2018.xlsx
+++ b/Rawdata/tor.riptransekter helags 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1794,8 +1794,8 @@
   <dimension ref="A1:Z397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2258,7 +2258,7 @@
         <v>43208.479861111111</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s">
         <v>58</v>
@@ -2746,7 +2746,7 @@
         <v>43208.626388888886</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="N26" t="s">
         <v>59</v>
@@ -3002,7 +3002,7 @@
         <v>43208.768750000003</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N34" t="s">
         <v>61</v>
